--- a/Lab10/analiza_DSF.xlsx
+++ b/Lab10/analiza_DSF.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
   <si>
     <t>p</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>Albo</t>
-  </si>
-  <si>
-    <t>5, 14</t>
   </si>
 </sst>
 </file>
@@ -198,14 +192,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -245,7 +239,7 @@
         <xdr:cNvPr id="6" name="Obraz 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE2C1522-00AC-4266-8197-1709C855AF41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2C1522-00AC-4266-8197-1709C855AF41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -289,7 +283,7 @@
         <xdr:cNvPr id="7" name="Obraz 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDD99FF4-FE36-46BE-A423-A5C553E082AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD99FF4-FE36-46BE-A423-A5C553E082AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -333,7 +327,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F03EE89-8C4B-405F-BC86-F2DC48BEEC79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F03EE89-8C4B-405F-BC86-F2DC48BEEC79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -698,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1047,13 +1041,13 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="2:30">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="2:30">
       <c r="B21" s="8" t="s">
@@ -1064,15 +1058,12 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="U21" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="22" spans="2:30">
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="7"/>
@@ -1084,43 +1075,25 @@
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="2:30">
       <c r="B24" s="8" t="s">
@@ -1131,158 +1104,90 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="U24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC24" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="U25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" s="11">
-        <v>-1</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="2:30">
       <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="U26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" s="12">
-        <v>1</v>
-      </c>
-      <c r="W26" s="12">
-        <v>2</v>
-      </c>
-      <c r="X26" s="12">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="12">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="12">
-        <v>10</v>
-      </c>
-      <c r="AB26" s="12">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="12">
-        <v>15</v>
-      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="U27" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="U27" s="2"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="12">
-        <v>7</v>
-      </c>
-      <c r="X27" s="12">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z27" s="12">
-        <v>13</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>11</v>
-      </c>
-      <c r="AB27" s="12">
-        <v>12</v>
-      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
     </row>
@@ -1290,10 +1195,10 @@
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7"/>
@@ -1304,16 +1209,16 @@
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="7"/>
